--- a/frontend-cemos/public/assets/content/economia/1-economia-br/script/vf3.xlsx
+++ b/frontend-cemos/public/assets/content/economia/1-economia-br/script/vf3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>bibliografia_id</t>
+          <t>bibliografia_titulo</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -478,32 +478,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pág 30</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cap. 3 - Autorização implícita a ambiguidade intencional</t>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>As tropas de Saddam Hussein iniciaram uma campanha de vingança no norte do Iraque contra os curdos em 1991, resultando em um fluxo maciço de refugiados que ameaçava a paz internacional.</t>
+          <t>O conceito de desenvolvimento econômico é mais amplo que o de crescimento, englobando a natureza e a qualidade da expansão produtiva, e não apenas sua magnitude.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A Resolução 688 foi aprovada para lidar com uma ameaça militar transfronteiriça direta do Iraque contra a Turquia e o Irã, e não com a repressão interna contra curdos.</t>
+          <t>Crescimento econômico e desenvolvimento econômico são sinônimos, referindo-se ambos exclusivamente à ampliação quantitativa do PIB de um país.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança manifestava grave preocupação com "a repressão da população civil iraquiana", que levou a um fluxo maciço de refugiados e incursões além-fronteiras, ameaçando a paz.</t>
+          <t>Desenvolvimento envolve a qualidade de vida e condições sociais, enquanto crescimento foca na quantidade de produção (PIB).</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -512,32 +512,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pág 30</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cap. 3 - Autorização implícita a ambiguidade intencional</t>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A "Operação Fornecer Ajuda", liderada pelos Estados Unidos, Grã-Bretanha e outros países, foi mobilizada no norte do Iraque para estabelecer "zonas de segurança" para civis curdos.</t>
+          <t>O Brasil, apesar de possuir um PIB total elevado (maior que o de países como a Suíça), não é considerado desenvolvido devido às condições de vida insuficientes de parte significativa de sua população.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A "Operação Fornecer Ajuda" foi uma iniciativa da ONU, organizada e financiada pelo Secretário-Geral, para prover assistência humanitária aos curdos.</t>
+          <t>O Brasil é classificado como país desenvolvido porque seu PIB total supera o de nações de Primeiro Mundo, como a Suíça, garantindo alta qualidade de vida a todos.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A operação militar foi uma iniciativa dos EUA, Grã-Bretanha, França, Itália e Holanda para estabelecer zonas de segurança para civis, não sendo uma operação da ONU.</t>
+          <t>O volume total de produção não garante desenvolvimento se as condições sociais e de vida da população forem precárias.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -546,32 +546,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pág 30</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cap. 3 - Autorização implícita a ambiguidade intencional</t>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Na Resolução 688, o Conselho de Segurança exortava os países a contribuir para as operações de ajuda humanitária organizadas pelo secretário-geral da ONU.</t>
+          <t>Um país é considerado subdesenvolvido quando uma proporção significativa de sua população residente possui condições de vida insuficientes ou consumo sofrível.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A Resolução 688 autorizou explicitamente o uso da força militar pelos países membros para proteger os curdos no norte do Iraque.</t>
+          <t>Um país é subdesenvolvido quando sua economia é baseada na agricultura, independentemente da qualidade de vida de sua população.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A Resolução 688 não autorizava expressamente o emprego da força, apenas exortava os países a contribuir para a ajuda humanitária.</t>
+          <t>A definição de subdesenvolvimento está atrelada à precariedade das condições de vida e consumo da população.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -580,32 +580,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pág 31</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cap. 3 - Autorização implícita a ambiguidade intencional</t>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A China ameaçou vetar qualquer resolução que autorizasse uma ação militar para proteger os curdos, por preocupação com a interferência em questões internas de Estados soberanos.</t>
+          <t>O Produto per Capita, calculado dividindo-se o PIB pela população, é uma primeira aproximação para quantificar o grau de desenvolvimento de um país.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A China apoiou a autorização militar para proteger os curdos, desde que a soberania iraquiana fosse respeitada a longo prazo.</t>
+          <t>O Produto per Capita é calculado multiplicando-se o PIB pela taxa de inflação, servindo para medir o custo de vida.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A China estava preocupada com a interferência em questões internas de Estados soberanos e ameaçou vetar resoluções que autorizassem ação militar para proteger os curdos.</t>
+          <t>PIB per capita (PIB/População) indica a disponibilidade média de bens e serviços por habitante.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -614,32 +614,32 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pág 31</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cap. 3 - Autorização implícita a ambiguidade intencional</t>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>As duas zonas de "exclusão aérea" criadas sobre o Iraque (norte do Paralelo 36 e sul do Paralelo 32) eram justificadas com base na Resolução 688, apesar da ausência de autorização expressa no texto.</t>
+          <t>A Suíça é considerada mais desenvolvida que o Brasil porque, apesar de ter um PIB total menor, possui um PIB per capita e acesso médio a bens muito superiores.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>As zonas de "exclusão aérea" foram estabelecidas em 1996 após a Resolução 688 ter sido modificada para incluir uma autorização explícita de uso da força em caso de incursão iraquiana.</t>
+          <t>O Brasil é mais desenvolvido que a Suíça porque, embora tenha menor renda per capita, possui um território maior e maior população.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>As zonas de "exclusão aérea" foram justificadas primordialmente na Resolução 688, embora o texto não contivesse autorização expressa para o uso da força.</t>
+          <t>O nível de desenvolvimento é melhor aferido pela renda média (per capita) e bem-estar do que pelo tamanho absoluto da economia.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -648,32 +648,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pág 31</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cap. 3 - Autorização implícita a ambiguidade intencional</t>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Diferentemente da Resolução 688, a Resolução 678, aprovada após a invasão do Kuwait, autorizava inequivocamente o uso da força, utilizando a expressão “utilizar todos os meios necessários”.</t>
+          <t>O PIB per capita é uma média que pode esconder disparidades, pois a renda real dispersa-se em torno desse valor, muitas vezes concentrando-se em poucos indivíduos.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A Resolução 678 e a Resolução 688 são juridicamente semelhantes, pois ambas dependiam de uma interpretação implícita para justificar o uso da força.</t>
+          <t>O PIB per capita representa o valor exato que cada cidadão recebe mensalmente, garantindo que não haja desigualdade de renda no país.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>A Resolução 678 autorizava inequivocamente o uso da força, enquanto outras, como a 688, são menos claras, resultando em argumentos sobre autorização implícita.</t>
+          <t>Como média aritmética, o indicador não revela como a renda está distribuída entre ricos e pobres.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -682,32 +682,32 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pág 32</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cap. 3 - Autorização implícita a ambiguidade intencional</t>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>A OTAN deu início à campanha de ataques aéreos contra alvos na Sérvia e Montenegro em 1999 sem uma nova resolução do Conselho de Segurança autorizando a ação.</t>
+          <t>Um país com PIB per capita razoável pode ser considerado menos desenvolvido se sua distribuição de renda for muito concentrada, gerando más condições de vida para a maioria.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Antes dos ataques, a OTAN obteve uma nova resolução do Conselho de Segurança (Resolução 1204) autorizando a intervenção militar devido ao agravamento da situação no Kosovo.</t>
+          <t>A distribuição de renda é irrelevante para o conceito de desenvolvimento, desde que o PIB per capita do país seja elevado.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>A OTAN deu início aos ataques aéreos em 24 de março de 1999 sem que uma nova resolução tivesse sido adotada pelo Conselho de Segurança da ONU.</t>
+          <t>A concentração de renda distorce o bem-estar, fazendo com que a maioria viva abaixo da média sugerida pelo PIB per capita.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -716,32 +716,32 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pág 32</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Cap. 3 - Autorização implícita a ambiguidade intencional</t>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>As potências interventoras no Kosovo argumentaram a existência de autorização implícita, pois o Conselho de Segurança havia identificado a situação como ameaça à paz e exigido ações prévias nas Resoluções 1199 e 1203.</t>
+          <t>A partir da década de 1980, o crescimento do PIB per capita brasileiro tornou-se mais oscilante, refletindo crises como a da dívida e a alta inflação.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>O argumento da autorização implícita foi levado muito a sério por todos os países membros da OTAN, incluindo Rússia e China, que o consideraram uma base legal sólida para a intervenção no Kosovo.</t>
+          <t>Desde a década de 1980, o PIB per capita brasileiro tem crescido de forma linear e ininterrupta, sem apresentar oscilações ou quedas.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>O argumento da autorização implícita foi acenado, mas muito poucos o levaram a sério, e a Guerra do Kosovo foi considerada ilegal pela Rússia, China e muitos países em desenvolvimento.</t>
+          <t>A década de 1980 ("década perdida") iniciou um período de instabilidade e baixo crescimento médio da renda per capita.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -750,32 +750,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pág 32</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cap. 3 - Autorização implícita a ambiguidade intencional</t>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>O principal argumento jurídico dos EUA e Grã-Bretanha para a Guerra do Iraque de 2003 era que a Resolução 678 (1990) havia sido suspensa, mas não cancelada, pelo cessar-fogo e poderia ser reativada por uma “violação material” do Iraque.</t>
+          <t>Indicadores sociais, como esperança de vida e alfabetização, são essenciais para complementar a análise do desenvolvimento, focando diretamente na qualidade de vida.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A principal justificativa legal para a invasão do Iraque em 2003 foi a alegação de ação preventiva em legítima defesa, ignorando as resoluções anteriores do Conselho de Segurança.</t>
+          <t>A análise do desenvolvimento deve restringir-se a indicadores monetários, pois dados sobre saúde e educação não possuem relevância econômica.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>O argumento principal era que a autorização prevista na Resolução 678 foi suspensa pelo cessar-fogo e reativada pela "violação material" das obrigações do Iraque.</t>
+          <t>O desenvolvimento é definido pela qualidade de vida, o que exige métricas de saúde, educação e saneamento (indicadores sociais).</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -784,32 +784,32 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pág 33</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cap. 3 - Autorização implícita a ambiguidade intencional</t>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Um contra-argumento à teoria da reativação era que a resolução de cessar-fogo de 1991 cancelou com toda a clareza, e não apenas suspendeu, a autorização anterior para o uso da força militar.</t>
+          <t>Apesar da evolução positiva de indicadores como mortalidade infantil e analfabetismo no Brasil, persistem grandes disparidades regionais entre o Sul/Sudeste e o Norte/Nordeste.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>O cessar-fogo de 1991 (Resolução 687) confirmou que a autorização da Resolução 678 permaneceria suspensa apenas temporariamente, exigindo apenas uma nova votação para ser reativada.</t>
+          <t>Os indicadores sociais brasileiros mostram que as desigualdades regionais foram totalmente erradicadas, com o Nordeste apresentando os mesmos índices do Sul.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>A resolução de 1991 sobre o cessar-fogo foi redigida para cancelar, e não apenas suspender, a autorização de emprego da força militar adotada no ano anterior.</t>
+          <t>As tabelas mostram que regiões como Nordeste e Norte ainda têm indicadores sociais significativamente piores que o Sul e Sudeste.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -818,32 +818,32 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pág 33</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cap. 3 - Autorização implícita a ambiguidade intencional</t>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Após a adoção da Resolução 1441, membros do Conselho, incluindo EUA e Grã-Bretanha, confirmaram publicamente que a resolução não contemplava qualquer “automaticidade” no uso da força.</t>
+          <t>A taxa de analfabetismo no Brasil apresenta forte correlação com a região, sendo historicamente mais elevada no Nordeste do que nas regiões Sul e Sudeste.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A Resolução 1441 especificava que, em caso de violação material, os Estados Unidos e a Grã-Bretanha estariam automaticamente autorizados a empregar a força sem a necessidade de uma nova votação.</t>
+          <t>A taxa de analfabetismo distribui-se de maneira uniforme por todo o território nacional, não havendo diferença significativa entre as regiões.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Após a adoção da Resolução 1441, todos os membros do Conselho de Segurança confirmaram publicamente que a resolução não contemplava qualquer "automaticidade" no uso da força.</t>
+          <t>Dados do IBGE comprovam que o analfabetismo é muito mais prevalente no Nordeste (acima de 11% em 2022) do que no Sul/Sudeste.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -852,32 +852,32 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pág 33</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cap. 3 - Autorização implícita a ambiguidade intencional</t>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Ao equilibrar cuidadosamente os argumentos e dar razão a ambos os lados do debate, a Resolução 1441 conseguiu na realidade "des-legalizar a situação", protegendo o sistema jurídico internacional.</t>
+          <t>Houve uma evolução positiva na saúde da população brasileira nas últimas décadas, evidenciada pelo aumento da esperança de vida e queda da mortalidade infantil.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A Resolução 1441 forneceu uma base jurídica clara e definitiva para a invasão do Iraque, resolvendo a ambiguidade das resoluções anteriores.</t>
+          <t>Nas últimas décadas, a saúde pública brasileira colapsou, resultando em queda na esperança de vida e aumento da mortalidade infantil.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>A Resolução 1441, ao equilibrar os argumentos, conseguiu des-legalizar a situação, fornecendo aos EUA um argumento jurídico mais sustentável do que a alegação de ação preventiva.</t>
+          <t>As séries históricas confirmam a melhora contínua dos indicadores vitais de saúde no longo prazo.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -886,32 +886,32 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Pág 34</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Cap. 3 - Autorização implícita a ambiguidade intencional</t>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Os Estados Unidos tendem a conferir mais peso ao “objetivo e finalidade” dos documentos internacionais, e menos ao que efetivamente expressam, favorecendo uma abordagem finalista.</t>
+          <t>Existe uma forte desigualdade no acesso a saneamento básico no Brasil dependendo da renda: famílias mais pobres têm muito menos acesso a esgoto e água tratada.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>A maioria dos advogados internacionais rejeita o uso de analogias e princípios estabelecidos, focando estritamente no texto das resoluções para encontrar a única resposta certa.</t>
+          <t>O acesso ao saneamento básico no Brasil é universal e democrático, não havendo diferença de atendimento entre famílias ricas e pobres.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Os advogados internacionais, ao buscar respostas, recorrem a analogias, precedentes e princípios, mas a escolha e o peso conferido a esses materiais geram divergências.</t>
+          <t>Famílias com renda até 1/4 de salário-mínimo têm taxas de acesso a saneamento drasticamente menores que as de alta renda.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -920,32 +920,32 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pág 34</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cap. 3 - Autorização implícita a ambiguidade intencional</t>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>O Artigo 31 (1) da Convenção de Viena prioriza que tratados sejam interpretados em boa-fé de acordo com o significado comum a ser conferido a seus termos no contexto e à luz de seu objetivo e finalidade.</t>
+          <t>A taxa de analfabetismo é significativamente maior nas faixas de renda mais baixa (até 1/4 do salário-mínimo) do que nas faixas de renda superior.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>A Convenção de Viena sobre o Direito de Tratados endossa a abordagem finalista proposta pelos EUA em 1968, priorizando a vontade evoluída das partes sobre o significado comum do texto.</t>
+          <t>A educação no Brasil independe da renda, sendo a taxa de analfabetismo idêntica entre os que ganham 1 salário-mínimo e os que ganham mais de 5.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>A abordagem finalista proposta pela delegação americana foi esmagadoramente recusada, e o Artigo 31 (1) da Convenção de Viena dá ênfase ao sentido comum dos termos.</t>
+          <t>A pobreza está fortemente correlacionada com baixos níveis educacionais e analfabetismo.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -954,32 +954,32 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Pág 34</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cap. 3 - Autorização implícita a ambiguidade intencional</t>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Durante a crise do Kosovo em 1999, Madeleine Albright sugeriu a Robin Cook, que estava preocupado com problemas legais sobre o uso da força, que "Arranje outros advogados".</t>
+          <t>Apenas uma minoria das famílias com renda per capita extremamente baixa (até 1/4 de salário mínimo) reside em domicílios considerados adequados.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>O primeiro-ministro britânico Tony Blair insistiu que a aprovação do Conselho de Segurança era juridicamente essencial para a Guerra do Kosovo, apesar das pressões dos EUA.</t>
+          <t>A maioria das famílias de baixíssima renda no Brasil vive em domicílios considerados adequados, com acesso pleno a serviços públicos.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>O primeiro-ministro Tony Blair pressionou para que os britânicos concordassem em que não era necessária a aprovação do Conselho de Segurança, alinhando-se com a sugestão de Albright.</t>
+          <t>A adequação da moradia (teto, piso, serviços) é precária para a grande maioria da população na base da pirâmide de renda.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -988,32 +988,32 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Pág 35</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Cap. 3 - Autorização implícita a ambiguidade intencional</t>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Michael Wood favorecia uma abordagem finalista para a interpretação das resoluções do CS, levando em conta todo o contexto do envolvimento do Conselho para estabelecer o resultado que ele buscava.</t>
+          <t>O Índice de Desenvolvimento Humano (IDH) é uma média geométrica de três componentes: renda (PIB per capita PPP), longevidade (esperança de vida) e educação.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>A abordagem de Michael Wood era estritamente textualista, exigindo que a autorização para o uso da força fosse explicitamente declarada no texto da resolução.</t>
+          <t>O Índice de Desenvolvimento Humano (IDH) é calculado exclusivamente com base na renda per capita, ignorando saúde e educação.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Wood favorecia uma abordagem de caráter finalista, interpretando as ambigüidades de texto de maneira coerente com o ponto de vista de que o Conselho pretende ver atendidas suas exigências.</t>
+          <t>A ONU criou o IDH justamente para agregar saúde e educação à dimensão da renda na avaliação do desenvolvimento.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1022,32 +1022,32 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Pág 35</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cap. 3 - Autorização implícita a ambiguidade intencional</t>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jochen Frowein defende uma abordagem interpretativa mais restritiva para as resoluções do Conselho de Segurança, estritamente voltada para o significado comum das palavras, ignorando intenções subjetivas.</t>
+          <t>O IDH varia de zero a um, sendo que quanto mais próximo de 1, mais desenvolvido é considerado o país.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Frowein argumenta que o principal aspecto da interpretação das resoluções do CS deve ser a intenção subjetiva dos membros que votaram a favor, já que o país sujeito à resolução geralmente não contribuiu para sua formulação.</t>
+          <t>O IDH varia de zero a cem, sendo que quanto mais próximo de zero, melhor é o desenvolvimento do país.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Frowein defende uma abordagem que se concentra no significado comum das palavras e ignora as intenções subjetivas, já que o país sujeito ao Capítulo VII provavelmente não contribuiu para a formulação da resolução.</t>
+          <t>A escala padrão do IDH é unitária (0 a 1), onde valores altos indicam alto desenvolvimento humano.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1056,32 +1056,32 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pág 35</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cap. 3 - Autorização implícita a ambiguidade intencional</t>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Após a Guerra do Iraque, os governos passaram a observar maior cautela, resultando em resoluções subsequentes do Conselho de Segurança, como a 1483 e 1511, redigidas de maneira mais estrita e com maior clareza.</t>
+          <t>O indicador de renda do IDH utiliza dólares ajustados pela Paridade de Poder de Compra (PPP) para refletir o custo de vida real.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>A tentativa de promover uma abordagem finalista após a Guerra do Iraque foi bem-sucedida, levando a uma maior flexibilidade e interpretação contextual nas resoluções subsequentes.</t>
+          <t>O indicador de renda do IDH utiliza a moeda local de cada país sem conversão, para respeitar a soberania nacional.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>A tentativa de promover uma abordagem finalista saiu pela culatra, levando a maior clareza na redação e maior objetividade na interpretação das resoluções do Conselho de Segurança.</t>
+          <t>O uso de dólares PPP é necessário para comparar o padrão de vida real entre países com preços diferentes.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1090,32 +1090,32 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Pág 36</t>
+          <t>Pág 11</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Cap. 3 - Autorização implícita a ambiguidade intencional</t>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Em setembro de 2004, o secretário-geral Kofi Annan expressou a opinião de que a Guerra do Iraque foi “ilegal”.</t>
+          <t>A distribuição funcional da renda divide a renda nacional entre os fatores de produção, principalmente entre remuneração do trabalho (salários) e do capital (excedente).</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Kofi Annan defendeu a legalidade da Guerra do Iraque em 2004, argumentando que a Resolução 1441 fornecia base suficiente para o uso da força.</t>
+          <t>A distribuição funcional da renda divide a renda nacional entre as diferentes regiões geográficas do país, como Norte e Sul.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Kofi Annan expressou a opinião de que a Guerra do Iraque foi "ilegal" por não ter sido aprovada ou determinada pelo Conselho de Segurança.</t>
+          <t>A ótica funcional foca na função econômica (trabalho vs. capital), não na geografia ou nas pessoas.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1124,32 +1124,32 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Pág 36</t>
+          <t>Pág 11</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Cap. 3 - Autorização implícita a ambiguidade intencional</t>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>O governo Bush demonstrou intolerância com a divergência de Kofi Annan, mantendo-se de braços cruzados enquanto congressistas republicanos exigiam a renúncia do secretário-geral.</t>
+          <t>O excedente operacional bruto representa a remuneração do capital e das terras (lucros, aluguéis) no processo produtivo.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A Casa Branca aceitou a crítica de Annan sobre a legalidade da guerra, mas exigiu sua renúncia apenas por causa do envolvimento no escândalo "petróleo por alimentos".</t>
+          <t>O excedente operacional bruto corresponde ao total de impostos arrecadados pelo governo sobre a produção.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>A Casa Branca manifestou forte discordância com a avaliação de Annan e demonstrou intolerância às divergências, chegando ao ponto de o embaixador americano eximir-se de manifestar confiança na liderança do secretário-geral.</t>
+          <t>Excedente operacional é o saldo que remunera o capitalista/proprietário, após pagar trabalhadores e impostos.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1158,36 +1158,444 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Pág 36</t>
+          <t>Pág 11</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Cap. 3 - Autorização implícita a ambiguidade intencional</t>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Em novembro de 2004, o embaixador americano John Danforth eximiu-se deliberadamente de manifestar sua confiança na liderança de Kofi Annan, o que no mundo do protocolo diplomático é considerado um ataque poderoso.</t>
+          <t>Entre 2005 e 2015, houve um aumento na participação da "remuneração dos empregados" na distribuição funcional da renda no Brasil.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>O embaixador americano John Danforth reafirmou a total confiança dos EUA em Kofi Annan, apesar das críticas internas de congressistas republicanos.</t>
+          <t>Entre 2005 e 2015, a participação dos salários na renda nacional caiu drasticamente, atingindo mínimos históricos.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>O embaixador John Danforth deliberadamente eximiu-se de manifestar sua confiança na liderança do secretário-geral, o que no protocolo diplomático era um ataque poderoso.</t>
+          <t>Os dados mostram uma tendência de elevação da parcela salarial nesse período específico.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Pág 14</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>A Curva de Lorenz relaciona a porcentagem acumulada da população com a porcentagem acumulada da renda, ilustrando a desigualdade.</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>A Curva de Lorenz relaciona a taxa de inflação com a taxa de desemprego, ilustrando a Curva de Phillips.</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>A Curva de Lorenz é a representação gráfica padrão para visualizar a distribuição acumulada de renda.</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Pág 14</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>O Índice de Gini mede a desigualdade: quanto mais próximo de 1, maior a concentração de renda; quanto mais próximo de 0, maior a igualdade.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>O Índice de Gini mede a riqueza total: quanto mais próximo de 1, mais rico é o país; quanto mais próximo de 0, mais pobre.</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Gini é um coeficiente de concentração/desigualdade, não de nível absoluto de riqueza.</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Pág 14</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Na representação gráfica, quanto mais a Curva de Lorenz se afasta da linha diagonal (igualdade perfeita), maior é a desigualdade.</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Na representação gráfica, quanto mais a Curva de Lorenz se aproxima da linha diagonal, maior é a desigualdade de renda.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>A diagonal representa a distribuição perfeita; o afastamento (barriga da curva) indica concentração.</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Pág 16</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>A "Teoria do Bolo", debatida nos anos 1970, defendia que era necessário primeiro crescer economicamente para depois distribuir a renda.</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>A "Teoria do Bolo" defendia que a distribuição de renda deveria ocorrer antes do crescimento econômico para impulsionar a demanda.</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>A metáfora do bolo justificava a concentração de renda durante o Milagre Econômico como necessária para acumular capital.</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Pág 16</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Na década de 1980, a crise e a hiperinflação agravaram a desigualdade, pois os mais ricos tinham mecanismos financeiros para se proteger, ao contrário dos pobres.</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>A década de 1980 foi um período de grande redução da desigualdade, pois a inflação corroeu a riqueza dos mais ricos e protegeu os salários.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>A inflação alta penaliza desproporcionalmente os pobres (sem acesso a indexação financeira), concentrando renda.</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Pág 16</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Após o Plano Real e com políticas como o Bolsa Família, houve um período (até 2015) em que a renda dos mais pobres cresceu proporcionalmente mais que a dos ricos.</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>O Plano Real e o Bolsa Família causaram um aumento explosivo da desigualdade, fazendo com que os pobres ficassem mais pobres em termos relativos.</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>A estabilização e as transferências de renda permitiram uma redução consistente do índice de Gini nesse período.</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Pág 18</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>A linha de pobreza define um valor monetário ou de consumo mínimo necessário para evitar um estado de carência absoluta.</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>A linha de pobreza é definida como a renda média de toda a população, sendo impossível alguém estar acima dela.</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>A linha de pobreza é um limiar inferior de subsistência/necessidades básicas.</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Pág 18</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>O Banco Mundial utiliza linhas de pobreza baseadas em Paridade de Poder de Compra (PPC), como US$ 1,90, US$ 3,20 e US$ 5,50 ao dia.</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>O Banco Mundial define a pobreza internacionalmente usando apenas o valor do salário-mínimo brasileiro convertido em euros.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>As linhas globais (US$ 1,90/3,20/5,50 PPC) padronizam a medição da pobreza entre países diferentes.</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Pág 18</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>No início do século XXI, o Brasil observou uma queda significativa no número de pessoas vivendo abaixo da linha de pobreza.</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>No início do século XXI, a pobreza no Brasil triplicou, atingindo 90% da população devido à estagnação econômica.</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Os dados mostram redução acentuada da pobreza (de &gt;30% para ~15% ou menos) nos anos 2000/2010.</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Pág 20</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>A pobreza multidimensional considera diversas privações simultâneas (como saúde, educação e padrões de vida) e não apenas a falta de renda monetária.</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>A pobreza multidimensional é calculada somando-se todas as dívidas bancárias de uma família.</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>O conceito multidimensional reconhece que a pobreza vai além do dinheiro, envolvendo falta de acesso a serviços e direitos.</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Pág 20</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Equidade no desenvolvimento significa garantir igualdade de oportunidades para que todos possam participar e se beneficiar do crescimento.</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Equidade significa garantir que todas as pessoas tenham exatamente a mesma profissão e o mesmo salário, independentemente da função.</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Equidade foca no acesso justo a oportunidades e benefícios, não necessariamente em igualitarismo absoluto de resultados.</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Pág 23</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Os Objetivos de Desenvolvimento Sustentável (ODS) são 17 metas globais da Agenda 2030 da ONU, abrangendo dimensões econômicas, sociais e ambientais.</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Os ODS são um conjunto de regras comerciais impostas pela OMC para proibir subsídios agrícolas em países pobres.</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Os ODS (Agenda 2030) sucederam os Objetivos do Milênio com foco amplo em sustentabilidade global.</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
